--- a/www/IndicatorsPerCountry/Oman_GDPperCapita_TerritorialRef_1971_2012_CCode_512.xlsx
+++ b/www/IndicatorsPerCountry/Oman_GDPperCapita_TerritorialRef_1971_2012_CCode_512.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Oman_GDPperCapita_TerritorialRef_1971_2012_CCode_512.xlsx
+++ b/www/IndicatorsPerCountry/Oman_GDPperCapita_TerritorialRef_1971_2012_CCode_512.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>707</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>766</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>866</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>923</t>
-  </si>
-  <si>
-    <t>1084</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>1053</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>1749</t>
-  </si>
-  <si>
-    <t>3094</t>
-  </si>
-  <si>
-    <t>3782</t>
-  </si>
-  <si>
-    <t>3799</t>
-  </si>
-  <si>
-    <t>3716</t>
-  </si>
-  <si>
-    <t>3934</t>
-  </si>
-  <si>
-    <t>3279</t>
-  </si>
-  <si>
-    <t>3541</t>
-  </si>
-  <si>
-    <t>4267</t>
-  </si>
-  <si>
-    <t>4597</t>
-  </si>
-  <si>
-    <t>4390</t>
-  </si>
-  <si>
-    <t>4086</t>
-  </si>
-  <si>
-    <t>4044</t>
-  </si>
-  <si>
-    <t>4072</t>
-  </si>
-  <si>
-    <t>4523</t>
-  </si>
-  <si>
-    <t>4800</t>
-  </si>
-  <si>
-    <t>5346</t>
-  </si>
-  <si>
-    <t>5976</t>
-  </si>
-  <si>
-    <t>6545</t>
-  </si>
-  <si>
-    <t>6442</t>
-  </si>
-  <si>
-    <t>6712</t>
-  </si>
-  <si>
-    <t>6670</t>
-  </si>
-  <si>
-    <t>6708</t>
-  </si>
-  <si>
-    <t>6478.95903484</t>
-  </si>
-  <si>
-    <t>6606.08739512</t>
-  </si>
-  <si>
-    <t>6895.60416623</t>
-  </si>
-  <si>
-    <t>7046.81141801</t>
-  </si>
-  <si>
-    <t>7098.1379233</t>
-  </si>
-  <si>
-    <t>7226.83217703</t>
-  </si>
-  <si>
-    <t>7228.94332435</t>
-  </si>
-  <si>
-    <t>7471.11883445</t>
-  </si>
-  <si>
-    <t>7478.99343067</t>
-  </si>
-  <si>
-    <t>7253.14865216</t>
-  </si>
-  <si>
-    <t>7414.71107117</t>
-  </si>
-  <si>
-    <t>7654.29295704</t>
-  </si>
-  <si>
-    <t>7647.92474022</t>
-  </si>
-  <si>
-    <t>7517.615155</t>
-  </si>
-  <si>
-    <t>7622.82809117</t>
-  </si>
-  <si>
-    <t>7775.66498544</t>
-  </si>
-  <si>
-    <t>8052.54435778</t>
-  </si>
-  <si>
-    <t>8434.10989996</t>
-  </si>
-  <si>
-    <t>9362.34679982</t>
-  </si>
-  <si>
-    <t>9541.80797446</t>
-  </si>
-  <si>
-    <t>9819.03748568</t>
+    <t>993</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1173</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1678</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>2788</t>
+  </si>
+  <si>
+    <t>4932</t>
+  </si>
+  <si>
+    <t>6028</t>
+  </si>
+  <si>
+    <t>6056</t>
+  </si>
+  <si>
+    <t>5923</t>
+  </si>
+  <si>
+    <t>6271</t>
+  </si>
+  <si>
+    <t>5227</t>
+  </si>
+  <si>
+    <t>5644</t>
+  </si>
+  <si>
+    <t>6802</t>
+  </si>
+  <si>
+    <t>7328</t>
+  </si>
+  <si>
+    <t>6998</t>
+  </si>
+  <si>
+    <t>6513</t>
+  </si>
+  <si>
+    <t>6446</t>
+  </si>
+  <si>
+    <t>6491</t>
+  </si>
+  <si>
+    <t>7210</t>
+  </si>
+  <si>
+    <t>7651</t>
+  </si>
+  <si>
+    <t>8521</t>
+  </si>
+  <si>
+    <t>9526</t>
+  </si>
+  <si>
+    <t>10433</t>
+  </si>
+  <si>
+    <t>10268</t>
+  </si>
+  <si>
+    <t>10699</t>
+  </si>
+  <si>
+    <t>10633</t>
+  </si>
+  <si>
+    <t>10692</t>
+  </si>
+  <si>
+    <t>10327</t>
+  </si>
+  <si>
+    <t>11131.0001614999</t>
+  </si>
+  <si>
+    <t>12251.1576128381</t>
+  </si>
+  <si>
+    <t>13226.6432323667</t>
+  </si>
+  <si>
+    <t>14079.5330556326</t>
+  </si>
+  <si>
+    <t>15292.1759621806</t>
+  </si>
+  <si>
+    <t>16491.1678287698</t>
+  </si>
+  <si>
+    <t>18518.4805057695</t>
+  </si>
+  <si>
+    <t>20213.0203779339</t>
+  </si>
+  <si>
+    <t>21519.6708744851</t>
+  </si>
+  <si>
+    <t>24186.3653983285</t>
+  </si>
+  <si>
+    <t>26431.1005102425</t>
+  </si>
+  <si>
+    <t>27141.8429085551</t>
+  </si>
+  <si>
+    <t>27313.979688054</t>
+  </si>
+  <si>
+    <t>28607.0843640724</t>
+  </si>
+  <si>
+    <t>30392.5600695084</t>
+  </si>
+  <si>
+    <t>33374.8938759397</t>
+  </si>
+  <si>
+    <t>36424.9793543135</t>
+  </si>
+  <si>
+    <t>40909.9379307961</t>
+  </si>
+  <si>
+    <t>44244.6465509869</t>
+  </si>
+  <si>
+    <t>46182.1601222189</t>
+  </si>
+  <si>
+    <t>44454</t>
+  </si>
+  <si>
+    <t>44008</t>
+  </si>
+  <si>
+    <t>41680</t>
+  </si>
+  <si>
+    <t>39418</t>
+  </si>
+  <si>
+    <t>38738</t>
+  </si>
+  <si>
+    <t>38515</t>
   </si>
   <si>
     <t>Description</t>
@@ -1357,6 +1375,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1372,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
